--- a/JsonExport/excel/Character.xlsx
+++ b/JsonExport/excel/Character.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\JsonExport\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C9ED3D-8055-4194-9183-94205F08E564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>#</t>
   </si>
@@ -187,33 +193,72 @@
     <t>CharDes_001</t>
   </si>
   <si>
+    <t>CharTitle_002</t>
+  </si>
+  <si>
+    <t>CharName_002</t>
+  </si>
+  <si>
+    <t>CharDes_002</t>
+  </si>
+  <si>
+    <t>弓箭手</t>
+  </si>
+  <si>
+    <t>CharTitle_003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharName_003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharDes_003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游侠</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharTitle_004</t>
+  </si>
+  <si>
+    <t>CharTitle_005</t>
+  </si>
+  <si>
+    <t>CharName_004</t>
+  </si>
+  <si>
+    <t>CharName_005</t>
+  </si>
+  <si>
+    <t>CharDes_004</t>
+  </si>
+  <si>
+    <t>CharDes_005</t>
+  </si>
+  <si>
     <t>剑士</t>
-  </si>
-  <si>
-    <t>CharTitle_002</t>
-  </si>
-  <si>
-    <t>CharName_002</t>
-  </si>
-  <si>
-    <t>CharDes_002</t>
-  </si>
-  <si>
-    <t>弓箭手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁甲兵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,158 +280,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,204 +310,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="6" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -615,255 +344,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -907,66 +394,26 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1253,37 +700,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.37962962962963" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="3" customWidth="1"/>
     <col min="2" max="3" width="30.25" style="4" customWidth="1"/>
-    <col min="4" max="5" width="27.6296296296296" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.1296296296296" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.62962962962963" style="4" customWidth="1"/>
+    <col min="4" max="5" width="27.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="27.6296296296296" style="4" customWidth="1"/>
-    <col min="10" max="10" width="29.8796296296296" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27.625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="4" customWidth="1"/>
     <col min="11" max="11" width="33.25" style="4" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="30.25" style="5" customWidth="1"/>
-    <col min="14" max="14" width="16.1296296296296" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.125" style="4" customWidth="1"/>
     <col min="15" max="15" width="16" style="4" customWidth="1"/>
     <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +740,7 @@
       <c r="C1" s="7"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1332,7 +779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="72" spans="1:15">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="8" t="s">
         <v>14</v>
@@ -1377,7 +824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="2:18">
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1393,7 +840,7 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>27</v>
@@ -1435,7 +882,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:15">
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>40</v>
@@ -1477,7 +924,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>10001</v>
       </c>
@@ -1490,8 +937,8 @@
       <c r="E7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>45</v>
+      <c r="F7" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -1521,21 +968,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>10002</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -1565,109 +1012,231 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="11:13">
-      <c r="K9" s="12"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="13:13">
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="13:13">
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="13:13">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B9" s="4">
+        <v>10003</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10003</v>
+      </c>
+      <c r="J9" s="4">
+        <v>10003</v>
+      </c>
+      <c r="K9" s="13">
+        <v>10003</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B10" s="4">
+        <v>10004</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>10004</v>
+      </c>
+      <c r="J10" s="4">
+        <v>10004</v>
+      </c>
+      <c r="K10" s="4">
+        <v>10004</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B11" s="4">
+        <v>10005</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>10005</v>
+      </c>
+      <c r="J11" s="4">
+        <v>10005</v>
+      </c>
+      <c r="K11" s="13">
+        <v>10005</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="13:13">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="13:13">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="13:13">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="13:13">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="13:13">
+    <row r="17" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="13:13">
+    <row r="18" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="13:13">
+    <row r="19" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="13:13">
+    <row r="20" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="13:13">
+    <row r="21" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="13:13">
+    <row r="22" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="13:13">
+    <row r="23" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="13:13">
+    <row r="24" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="13:13">
+    <row r="25" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="13:13">
+    <row r="26" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="13:13">
+    <row r="27" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="13:13">
+    <row r="28" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="13:13">
+    <row r="29" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="13:13">
+    <row r="30" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="13:13">
+    <row r="31" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="13:13">
+    <row r="32" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="13:13">
+    <row r="33" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="13:13">
+    <row r="34" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="13:13">
+    <row r="35" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="13:13">
+    <row r="36" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="13:13">
+    <row r="37" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="13:13">
+    <row r="38" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="13:13">
+    <row r="39" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="13:13">
+    <row r="40" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="13:13">
+    <row r="41" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M41" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/JsonExport/excel/Character.xlsx
+++ b/JsonExport/excel/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\JsonExport\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C9ED3D-8055-4194-9183-94205F08E564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BE86C6-B670-45DA-99E1-7C85265E8B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -398,7 +398,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1135,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
         <v>2</v>
-      </c>
-      <c r="N11" s="4">
-        <v>1</v>
       </c>
       <c r="O11" s="4">
         <v>1</v>
